--- a/recipient_list.xlsx
+++ b/recipient_list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Research Projects\Email Sending Bot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{12824ECE-8550-4591-820F-3A137F8BF9C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{415D374E-8225-4081-A06F-390457AE0499}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{DFEA6DF8-A75A-4215-BF1D-5D3E77DADDD3}"/>
   </bookViews>
@@ -41,20 +41,26 @@
     <t>Email</t>
   </si>
   <si>
-    <t>muhammadhamza198198198@gmail.com</t>
+    <t>muhammadhamza198198@gmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
@@ -73,7 +79,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -81,14 +87,34 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -404,7 +430,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C95E219-3260-436F-90FF-A9CBE65F2EAC}">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:A52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -415,19 +441,169 @@
     <col min="1" max="1" width="34.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
+    <row r="3" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="1"/>
+    </row>
+    <row r="4" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="1"/>
+    </row>
+    <row r="5" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="1"/>
+    </row>
+    <row r="6" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="1"/>
+    </row>
+    <row r="7" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="1"/>
+    </row>
+    <row r="8" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="1"/>
+    </row>
+    <row r="9" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="1"/>
+    </row>
+    <row r="10" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="1"/>
+    </row>
+    <row r="11" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="1"/>
+    </row>
+    <row r="12" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="1"/>
+    </row>
+    <row r="13" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="1"/>
+    </row>
+    <row r="14" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="1"/>
+    </row>
+    <row r="15" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="1"/>
+    </row>
+    <row r="16" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="1"/>
+    </row>
+    <row r="17" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="1"/>
+    </row>
+    <row r="18" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="1"/>
+    </row>
+    <row r="19" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="1"/>
+    </row>
+    <row r="20" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="1"/>
+    </row>
+    <row r="21" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="1"/>
+    </row>
+    <row r="22" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="1"/>
+    </row>
+    <row r="23" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="1"/>
+    </row>
+    <row r="24" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="1"/>
+    </row>
+    <row r="25" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="1"/>
+    </row>
+    <row r="26" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="1"/>
+    </row>
+    <row r="27" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="1"/>
+    </row>
+    <row r="28" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="1"/>
+    </row>
+    <row r="29" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="1"/>
+    </row>
+    <row r="30" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="1"/>
+    </row>
+    <row r="31" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="1"/>
+    </row>
+    <row r="32" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="1"/>
+    </row>
+    <row r="33" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="1"/>
+    </row>
+    <row r="34" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="1"/>
+    </row>
+    <row r="35" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="1"/>
+    </row>
+    <row r="36" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="1"/>
+    </row>
+    <row r="37" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="1"/>
+    </row>
+    <row r="38" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="1"/>
+    </row>
+    <row r="39" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="1"/>
+    </row>
+    <row r="40" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="1"/>
+    </row>
+    <row r="41" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="1"/>
+    </row>
+    <row r="42" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="1"/>
+    </row>
+    <row r="43" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="1"/>
+    </row>
+    <row r="44" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="1"/>
+    </row>
+    <row r="45" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="1"/>
+    </row>
+    <row r="46" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="1"/>
+    </row>
+    <row r="47" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="1"/>
+    </row>
+    <row r="48" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="1"/>
+    </row>
+    <row r="49" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="1"/>
+    </row>
+    <row r="50" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="1"/>
+    </row>
+    <row r="51" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A51" s="1"/>
+    </row>
+    <row r="52" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="1"/>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{3B5D2EB0-AEC2-49F9-BFE0-D1E94EB01104}"/>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{CD4EA837-5458-4087-9FE7-0602DA80EBE2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
